--- a/docs/schedule-ben.xlsx
+++ b/docs/schedule-ben.xlsx
@@ -14,7 +14,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Schedule!$3:$3</definedName>
     <definedName function="false" hidden="false" name="Interval" vbProcedure="false">Schedule!$H$2</definedName>
     <definedName function="false" hidden="false" name="StartTime" vbProcedure="false">Schedule!$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Schedule!$3:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +65,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FFA43253"/>
@@ -88,57 +89,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF5B4F3A"/>
+      <color rgb="FFCE181E"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA43253"/>
-        <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA43253"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -149,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,17 +151,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,19 +164,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,35 +188,33 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -293,7 +267,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF5B4F3A"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -326,7 +300,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,418 +309,418 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <f aca="false">B3+TIME(0,30,0)</f>
         <v>0.3125</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <f aca="false">B4+TIME(0,30,0)</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <f aca="false">B5+TIME(0,30,0)</f>
         <v>0.354166666666667</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <f aca="false">B6+TIME(0,30,0)</f>
         <v>0.375</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <f aca="false">B7+TIME(0,30,0)</f>
         <v>0.395833333333333</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <f aca="false">B8+TIME(0,30,0)</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <f aca="false">B9+TIME(0,30,0)</f>
         <v>0.4375</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <f aca="false">B10+TIME(0,30,0)</f>
         <v>0.458333333333333</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <f aca="false">B11+TIME(0,30,0)</f>
         <v>0.479166666666667</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <f aca="false">B12+TIME(0,30,0)</f>
         <v>0.5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <f aca="false">B13+TIME(0,30,0)</f>
         <v>0.520833333333333</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <f aca="false">B14+TIME(0,30,0)</f>
         <v>0.541666666666667</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <f aca="false">B15+TIME(0,30,0)</f>
         <v>0.5625</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <f aca="false">B16+TIME(0,30,0)</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <f aca="false">B17+TIME(0,30,0)</f>
         <v>0.604166666666667</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <f aca="false">B18+TIME(0,30,0)</f>
         <v>0.625</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <f aca="false">B19+TIME(0,30,0)</f>
         <v>0.645833333333333</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <f aca="false">B20+TIME(0,30,0)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <f aca="false">B21+TIME(0,30,0)</f>
         <v>0.6875</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <f aca="false">B22+TIME(0,30,0)</f>
         <v>0.708333333333334</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="8" t="n">
         <f aca="false">B23+TIME(0,30,0)</f>
         <v>0.729166666666667</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="8" t="n">
         <f aca="false">B24+TIME(0,30,0)</f>
         <v>0.75</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="8" t="n">
         <f aca="false">B25+TIME(0,30,0)</f>
         <v>0.770833333333334</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="8" t="n">
         <f aca="false">B26+TIME(0,30,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="8" t="n">
         <f aca="false">B27+TIME(0,30,0)</f>
         <v>0.8125</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="8" t="n">
         <f aca="false">B28+TIME(0,30,0)</f>
         <v>0.833333333333334</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -801,7 +775,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.250694444444444" header="0.511805555555555" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.251388888888889" header="0.511805555555555" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
